--- a/25网络工程学生考勤.xlsx
+++ b/25网络工程学生考勤.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2025\教学\C语言\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="21000" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>学号</t>
   </si>
@@ -234,8 +229,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,7 +248,7 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -264,14 +265,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,8 +428,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -362,12 +686,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -379,27 +954,62 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -657,47 +1267,50 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:GW52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+    <row r="2" ht="15" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
       <c r="D2">
         <v>9.15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="E2">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -707,12 +1320,15 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
@@ -722,12 +1338,15 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5">
@@ -737,12 +1356,15 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6">
@@ -752,12 +1374,15 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7">
@@ -766,12 +1391,15 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C8">
@@ -781,12 +1409,15 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C9">
@@ -796,12 +1427,15 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10">
@@ -811,12 +1445,15 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C11">
@@ -826,12 +1463,15 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C12">
@@ -841,12 +1481,15 @@
       <c r="D12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C13">
@@ -856,12 +1499,15 @@
       <c r="D13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C14">
@@ -871,12 +1517,15 @@
       <c r="D14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C15">
@@ -886,12 +1535,15 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C16">
@@ -901,12 +1553,15 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C17">
@@ -916,12 +1571,15 @@
       <c r="D17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C18">
@@ -931,12 +1589,15 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C19">
@@ -946,12 +1607,15 @@
       <c r="D19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C20">
@@ -961,12 +1625,15 @@
       <c r="D20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C21">
@@ -976,12 +1643,15 @@
       <c r="D21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C22">
@@ -991,12 +1661,15 @@
       <c r="D22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C23">
@@ -1006,12 +1679,15 @@
       <c r="D23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C24">
@@ -1021,12 +1697,15 @@
       <c r="D24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C25">
@@ -1036,12 +1715,15 @@
       <c r="D25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C26">
@@ -1051,12 +1733,15 @@
       <c r="D26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C27">
@@ -1066,12 +1751,15 @@
       <c r="D27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C28">
@@ -1081,12 +1769,15 @@
       <c r="D28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C29">
@@ -1096,12 +1787,15 @@
       <c r="D29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C30">
@@ -1111,12 +1805,15 @@
       <c r="D30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C31">
@@ -1126,12 +1823,15 @@
       <c r="D31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C32">
@@ -1141,12 +1841,15 @@
       <c r="D32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C33">
@@ -1155,12 +1858,15 @@
       <c r="D33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C34">
@@ -1170,10 +1876,13 @@
       <c r="D34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:205" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" ht="66" customHeight="1" spans="1:205">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
       <c r="D35">
         <f>COUNTIF(D3:D34,"×")</f>
         <v>1</v>
@@ -1983,73 +2692,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:205" ht="30" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="H38" s="4" t="s">
+    <row r="36" ht="15" spans="1:2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" ht="15" spans="1:2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" ht="30.75" spans="1:15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="H38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+    </row>
+    <row r="39" ht="15" spans="1:2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" ht="15" spans="1:2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" ht="15" spans="1:2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" ht="15" spans="1:2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" ht="15" spans="1:2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" ht="15" spans="1:2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" ht="15" spans="1:2">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" ht="15" spans="1:2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" ht="15" spans="1:2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" ht="15" spans="1:2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" ht="15" spans="1:2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" ht="78" customHeight="1" spans="4:15">
       <c r="D50">
         <f>COUNTIF(D3:D49,"×")</f>
         <v>1</v>
@@ -2099,17 +2808,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="4" t="s">
+    <row r="52" ht="30" spans="8:15">
+      <c r="H52" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2119,8 +2828,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C$1:C$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="20"/>
@@ -2131,6 +2839,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/25网络工程学生考勤.xlsx
+++ b/25网络工程学生考勤.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
   <si>
     <t>学号</t>
   </si>
@@ -229,7 +242,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1013,6 +1026,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1275,8 +1295,8 @@
   <sheetPr/>
   <dimension ref="A1:GW52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1295,7 +1315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:5">
+    <row r="2" ht="15" spans="1:6">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -1305,8 +1325,11 @@
       <c r="E2">
         <v>9.19</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:5">
+      <c r="F2">
+        <v>9.22</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1323,8 +1346,11 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:5">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1341,8 +1367,11 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1359,8 +1388,11 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1377,8 +1409,11 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1394,8 +1429,11 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -1412,8 +1450,11 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1430,8 +1471,11 @@
       <c r="E9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1448,8 +1492,11 @@
       <c r="E10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1466,8 +1513,11 @@
       <c r="E11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1484,8 +1534,11 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1502,8 +1555,11 @@
       <c r="E13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1520,8 +1576,11 @@
       <c r="E14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -1538,8 +1597,11 @@
       <c r="E15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1556,8 +1618,11 @@
       <c r="E16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -1574,8 +1639,11 @@
       <c r="E17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -1592,8 +1660,11 @@
       <c r="E18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -1610,8 +1681,11 @@
       <c r="E19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -1628,8 +1702,11 @@
       <c r="E20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -1646,8 +1723,11 @@
       <c r="E21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -1664,8 +1744,11 @@
       <c r="E22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -1682,8 +1765,11 @@
       <c r="E23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -1700,8 +1786,11 @@
       <c r="E24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -1718,8 +1807,11 @@
       <c r="E25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -1736,8 +1828,11 @@
       <c r="E26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -1754,8 +1849,11 @@
       <c r="E27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -1772,8 +1870,11 @@
       <c r="E28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
@@ -1790,8 +1891,11 @@
       <c r="E29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
@@ -1808,8 +1912,11 @@
       <c r="E30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
@@ -1826,8 +1933,11 @@
       <c r="E31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -1844,8 +1954,11 @@
       <c r="E32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
         <v>65</v>
       </c>
@@ -1861,8 +1974,11 @@
       <c r="E33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>67</v>
       </c>
@@ -1877,6 +1993,9 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
         <v>5</v>
       </c>
     </row>

--- a/25网络工程学生考勤.xlsx
+++ b/25网络工程学生考勤.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2025\教学\C语言\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="72">
   <si>
     <t>学号</t>
   </si>
@@ -65,6 +71,9 @@
     <t>王洪超</t>
   </si>
   <si>
+    <t>×</t>
+  </si>
+  <si>
     <t>25080903005</t>
   </si>
   <si>
@@ -221,9 +230,6 @@
     <t>马文佑</t>
   </si>
   <si>
-    <t>×</t>
-  </si>
-  <si>
     <t>25080903035</t>
   </si>
   <si>
@@ -237,19 +243,47 @@
   </si>
   <si>
     <t>√、正常、△、迟到、○早退、×缺勤</t>
+  </si>
+  <si>
+    <r>
+      <t>10.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.13</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,7 +295,7 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -278,151 +312,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,194 +370,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -699,263 +442,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -965,64 +457,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1287,53 +754,67 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GW52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:6">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="4">
         <v>9.15</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>9.19</v>
       </c>
-      <c r="F2">
-        <v>9.22</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="F2" s="4">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="G2" s="4">
+        <v>9.26</v>
+      </c>
+      <c r="H2" s="4">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -1349,17 +830,29 @@
       <c r="F3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C34" si="0">100-COUNTIF(D4:Z4,"×")*1.5</f>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1370,12 +863,24 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5">
@@ -1391,17 +896,29 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1412,13 +929,25 @@
       <c r="F6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -1432,13 +961,25 @@
       <c r="F7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -1453,17 +994,29 @@
       <c r="F8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1474,17 +1027,29 @@
       <c r="F9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1495,17 +1060,29 @@
       <c r="F10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1516,13 +1093,25 @@
       <c r="F11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -1537,13 +1126,25 @@
       <c r="F12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -1558,13 +1159,25 @@
       <c r="F13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C14">
         <f>110-COUNTIF(D14:Z14,"×")*1.5</f>
@@ -1579,13 +1192,25 @@
       <c r="F14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -1600,13 +1225,25 @@
       <c r="F15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -1621,13 +1258,25 @@
       <c r="F16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -1642,13 +1291,25 @@
       <c r="F17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -1663,17 +1324,29 @@
       <c r="F18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1684,17 +1357,29 @@
       <c r="F19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -1705,13 +1390,25 @@
       <c r="F20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -1726,13 +1423,25 @@
       <c r="F21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -1747,17 +1456,29 @@
       <c r="F22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1768,13 +1489,25 @@
       <c r="F23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -1789,13 +1522,25 @@
       <c r="F24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -1810,17 +1555,29 @@
       <c r="F25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -1831,13 +1588,25 @@
       <c r="F26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -1852,17 +1621,29 @@
       <c r="F27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -1873,17 +1654,29 @@
       <c r="F28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -1894,13 +1687,25 @@
       <c r="F29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -1915,13 +1720,25 @@
       <c r="F30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -1936,20 +1753,32 @@
       <c r="F31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>98.5</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -1957,12 +1786,24 @@
       <c r="F32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4" t="s">
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C33">
@@ -1977,17 +1818,29 @@
       <c r="F33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="4" t="s">
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -1998,10 +1851,22 @@
       <c r="F34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" ht="66" customHeight="1" spans="1:205">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:205" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
       <c r="D35">
         <f>COUNTIF(D3:D34,"×")</f>
         <v>1</v>
@@ -2016,19 +1881,19 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
@@ -2811,73 +2676,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" ht="15" spans="1:2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" ht="30.75" spans="1:15">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="H38" s="7" t="s">
+    <row r="36" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:205" ht="30" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="H38" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-    </row>
-    <row r="39" ht="15" spans="1:2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" ht="15" spans="1:2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" ht="15" spans="1:2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" ht="15" spans="1:2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" ht="15" spans="1:2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" ht="15" spans="1:2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" ht="15" spans="1:2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" ht="15" spans="1:2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" ht="15" spans="1:2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" ht="15" spans="1:2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" ht="15" spans="1:2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" ht="78" customHeight="1" spans="4:15">
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50">
         <f>COUNTIF(D3:D49,"×")</f>
         <v>1</v>
@@ -2892,19 +2757,19 @@
       </c>
       <c r="G50">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I50">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K50">
         <f t="shared" si="5"/>
@@ -2927,17 +2792,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="30" spans="8:15">
-      <c r="H52" s="7" t="s">
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="H52" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2947,7 +2812,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C$1:C$1048576">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="20"/>
@@ -2958,7 +2824,357 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/25网络工程学生考勤.xlsx
+++ b/25网络工程学生考勤.xlsx
@@ -1,39 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2025\教学\C语言\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="73">
   <si>
     <t>学号</t>
   </si>
@@ -44,208 +26,14 @@
     <t>成绩</t>
   </si>
   <si>
-    <t>25080903001</t>
-  </si>
-  <si>
-    <t>郝子鹏</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>25080903002</t>
-  </si>
-  <si>
-    <t>孔佑姿</t>
-  </si>
-  <si>
-    <t>25080903003</t>
-  </si>
-  <si>
-    <t>任莹</t>
-  </si>
-  <si>
-    <t>25080903004</t>
-  </si>
-  <si>
-    <t>王洪超</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>25080903005</t>
-  </si>
-  <si>
-    <t>于典</t>
-  </si>
-  <si>
-    <t>25080903006</t>
-  </si>
-  <si>
-    <t>毛甜甜</t>
-  </si>
-  <si>
-    <t>25080903007</t>
-  </si>
-  <si>
-    <t>唐雪峰</t>
-  </si>
-  <si>
-    <t>25080903008</t>
-  </si>
-  <si>
-    <t>高明蕊</t>
-  </si>
-  <si>
-    <t>25080903009</t>
-  </si>
-  <si>
-    <t>姜玉航</t>
-  </si>
-  <si>
-    <t>25080903010</t>
-  </si>
-  <si>
-    <t>张子函</t>
-  </si>
-  <si>
-    <t>25080903011</t>
-  </si>
-  <si>
-    <t>张泽昌</t>
-  </si>
-  <si>
-    <t>25080903012</t>
-  </si>
-  <si>
-    <t>姜若含</t>
-  </si>
-  <si>
-    <t>25080903013</t>
-  </si>
-  <si>
-    <t>王铮</t>
-  </si>
-  <si>
-    <t>25080903014</t>
-  </si>
-  <si>
-    <t>张耀誉</t>
-  </si>
-  <si>
-    <t>25080903016</t>
-  </si>
-  <si>
-    <t>付俊博</t>
-  </si>
-  <si>
-    <t>25080903017</t>
-  </si>
-  <si>
-    <t>李淑雅</t>
-  </si>
-  <si>
-    <t>25080903018</t>
-  </si>
-  <si>
-    <t>段明涵</t>
-  </si>
-  <si>
-    <t>25080903019</t>
-  </si>
-  <si>
-    <t>黄晟轩</t>
-  </si>
-  <si>
-    <t>25080903021</t>
-  </si>
-  <si>
-    <t>马云晓</t>
-  </si>
-  <si>
-    <t>25080903022</t>
-  </si>
-  <si>
-    <t>王开宇</t>
-  </si>
-  <si>
-    <t>25080903023</t>
-  </si>
-  <si>
-    <t>周亮</t>
-  </si>
-  <si>
-    <t>25080903024</t>
-  </si>
-  <si>
-    <t>刘文硕</t>
-  </si>
-  <si>
-    <t>25080903025</t>
-  </si>
-  <si>
-    <t>薛嘉乐</t>
-  </si>
-  <si>
-    <t>25080903026</t>
-  </si>
-  <si>
-    <t>商久胜</t>
-  </si>
-  <si>
-    <t>25080903027</t>
-  </si>
-  <si>
-    <t>张旖芮</t>
-  </si>
-  <si>
-    <t>25080903028</t>
-  </si>
-  <si>
-    <t>王浩瑞</t>
-  </si>
-  <si>
-    <t>25080903030</t>
-  </si>
-  <si>
-    <t>焦吉硕</t>
-  </si>
-  <si>
-    <t>25080903032</t>
-  </si>
-  <si>
-    <t>贺贞贤</t>
-  </si>
-  <si>
-    <t>25080903033</t>
-  </si>
-  <si>
-    <t>毕家乐</t>
-  </si>
-  <si>
-    <t>25080903034</t>
-  </si>
-  <si>
-    <t>马文佑</t>
-  </si>
-  <si>
-    <t>25080903035</t>
-  </si>
-  <si>
-    <t>朱莉莉</t>
-  </si>
-  <si>
-    <t>25080903036</t>
-  </si>
-  <si>
-    <t>周锦源</t>
-  </si>
-  <si>
-    <t>√、正常、△、迟到、○早退、×缺勤</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>10.1</t>
     </r>
     <r>
@@ -253,16 +41,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -270,20 +63,242 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>0.13</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.17</t>
+  </si>
+  <si>
+    <t>25080903001</t>
+  </si>
+  <si>
+    <t>郝子鹏</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>25080903002</t>
+  </si>
+  <si>
+    <t>孔佑姿</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>25080903003</t>
+  </si>
+  <si>
+    <t>任莹</t>
+  </si>
+  <si>
+    <t>25080903004</t>
+  </si>
+  <si>
+    <t>王洪超</t>
+  </si>
+  <si>
+    <t>25080903005</t>
+  </si>
+  <si>
+    <t>于典</t>
+  </si>
+  <si>
+    <t>25080903006</t>
+  </si>
+  <si>
+    <t>毛甜甜</t>
+  </si>
+  <si>
+    <t>25080903007</t>
+  </si>
+  <si>
+    <t>唐雪峰</t>
+  </si>
+  <si>
+    <t>25080903008</t>
+  </si>
+  <si>
+    <t>高明蕊</t>
+  </si>
+  <si>
+    <t>25080903009</t>
+  </si>
+  <si>
+    <t>姜玉航</t>
+  </si>
+  <si>
+    <t>25080903010</t>
+  </si>
+  <si>
+    <t>张子函</t>
+  </si>
+  <si>
+    <t>25080903011</t>
+  </si>
+  <si>
+    <t>张泽昌</t>
+  </si>
+  <si>
+    <t>25080903012</t>
+  </si>
+  <si>
+    <t>姜若含</t>
+  </si>
+  <si>
+    <t>25080903013</t>
+  </si>
+  <si>
+    <t>王铮</t>
+  </si>
+  <si>
+    <t>25080903014</t>
+  </si>
+  <si>
+    <t>张耀誉</t>
+  </si>
+  <si>
+    <t>25080903016</t>
+  </si>
+  <si>
+    <t>付俊博</t>
+  </si>
+  <si>
+    <t>25080903017</t>
+  </si>
+  <si>
+    <t>李淑雅</t>
+  </si>
+  <si>
+    <t>25080903018</t>
+  </si>
+  <si>
+    <t>段明涵</t>
+  </si>
+  <si>
+    <t>25080903019</t>
+  </si>
+  <si>
+    <t>黄晟轩</t>
+  </si>
+  <si>
+    <t>25080903021</t>
+  </si>
+  <si>
+    <t>马云晓</t>
+  </si>
+  <si>
+    <t>25080903022</t>
+  </si>
+  <si>
+    <t>王开宇</t>
+  </si>
+  <si>
+    <t>25080903023</t>
+  </si>
+  <si>
+    <t>周亮</t>
+  </si>
+  <si>
+    <t>25080903024</t>
+  </si>
+  <si>
+    <t>刘文硕</t>
+  </si>
+  <si>
+    <t>25080903025</t>
+  </si>
+  <si>
+    <t>薛嘉乐</t>
+  </si>
+  <si>
+    <t>25080903026</t>
+  </si>
+  <si>
+    <t>商久胜</t>
+  </si>
+  <si>
+    <t>25080903027</t>
+  </si>
+  <si>
+    <t>张旖芮</t>
+  </si>
+  <si>
+    <t>25080903028</t>
+  </si>
+  <si>
+    <t>王浩瑞</t>
+  </si>
+  <si>
+    <t>25080903030</t>
+  </si>
+  <si>
+    <t>焦吉硕</t>
+  </si>
+  <si>
+    <t>25080903032</t>
+  </si>
+  <si>
+    <t>贺贞贤</t>
+  </si>
+  <si>
+    <t>25080903033</t>
+  </si>
+  <si>
+    <t>毕家乐</t>
+  </si>
+  <si>
+    <t>25080903034</t>
+  </si>
+  <si>
+    <t>马文佑</t>
+  </si>
+  <si>
+    <t>25080903035</t>
+  </si>
+  <si>
+    <t>朱莉莉</t>
+  </si>
+  <si>
+    <t>25080903036</t>
+  </si>
+  <si>
+    <t>周锦源</t>
+  </si>
+  <si>
+    <t>√、正常、△、迟到、○早退、×缺勤</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,7 +310,21 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -312,46 +341,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,8 +504,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -386,15 +706,6 @@
       <right style="medium">
         <color rgb="FFDDDDDD"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -442,64 +753,352 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,1119 +1353,1221 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:GW52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14:J15"/>
+      <selection/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="4">
+    <row r="2" s="10" customFormat="1" ht="15" spans="1:11">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10">
         <v>9.15</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="10">
         <v>9.19</v>
       </c>
-      <c r="F2" s="4">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="10">
+        <v>9.22</v>
+      </c>
+      <c r="G2" s="10">
         <v>9.26</v>
       </c>
-      <c r="H2" s="4">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="10">
+        <v>9.29</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="J2" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="K2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:11">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="C3">
-        <f>100-COUNTIF(D3:Z3,"×")*1.5</f>
+        <f>100-COUNTIF(D3:Z3,"×")*3</f>
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:11">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C34" si="0">100-COUNTIF(D4:Z4,"×")*1.5</f>
-        <v>98.5</v>
+        <f t="shared" ref="C4:C34" si="0">100-COUNTIF(D4:Z4,"×")*3</f>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C14">
-        <f>110-COUNTIF(D14:Z14,"×")*1.5</f>
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:11">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:11">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:11">
+      <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>8</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>98.5</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="K32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
+      </c>
+      <c r="K33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>95.5</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:205" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" ht="66" customHeight="1" spans="1:205">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="D35">
         <f>COUNTIF(D3:D34,"×")</f>
         <v>1</v>
@@ -1897,7 +2598,7 @@
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
@@ -2676,73 +3377,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:205" ht="30" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="H38" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-    </row>
-    <row r="39" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="15" spans="1:2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" ht="15" spans="1:2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" ht="30.75" spans="1:15">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="H38" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+    </row>
+    <row r="39" ht="15" spans="1:2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" ht="15" spans="1:2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" ht="15" spans="1:2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" ht="15" spans="1:2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" ht="15" spans="1:2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" ht="15" spans="1:2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" ht="15" spans="1:2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" ht="15" spans="1:2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" ht="15" spans="1:2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" ht="15" spans="1:2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" ht="15" spans="1:2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" ht="78" customHeight="1" spans="4:15">
       <c r="D50">
         <f>COUNTIF(D3:D49,"×")</f>
         <v>1</v>
@@ -2773,7 +3474,7 @@
       </c>
       <c r="K50">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50">
         <f t="shared" si="5"/>
@@ -2792,17 +3493,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
+    <row r="52" ht="30" spans="8:15">
+      <c r="H52" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2812,8 +3513,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C$1:C$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="20"/>
@@ -2824,357 +3524,359 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="2" ht="15" spans="1:2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="4" ht="15" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+    </row>
+    <row r="6" ht="15" spans="1:2">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="7" ht="15" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="8" ht="15" spans="1:2">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="9" ht="15" spans="1:2">
+      <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="10" ht="15" spans="1:2">
+      <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="6" t="s">
+    </row>
+    <row r="11" ht="15" spans="1:2">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6" t="s">
+    </row>
+    <row r="12" ht="15" spans="1:2">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="13" ht="15" spans="1:2">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="14" ht="15" spans="1:2">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="15" ht="15" spans="1:2">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:2">
+      <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="6" t="s">
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:2">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="8" t="s">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:2">
+      <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="8" t="s">
+    </row>
+    <row r="19" s="2" customFormat="1" ht="15" spans="1:2">
+      <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="20" s="2" customFormat="1" ht="15" spans="1:2">
+      <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:2">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="22" ht="15" spans="1:2">
+      <c r="A22" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="23" ht="15" spans="1:2">
+      <c r="A23" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="24" ht="15" spans="1:2">
+      <c r="A24" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="25" ht="15" spans="1:2">
+      <c r="A25" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="26" ht="15" spans="1:2">
+      <c r="A26" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="27" ht="15" spans="1:2">
+      <c r="A27" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="28" ht="15" spans="1:2">
+      <c r="A28" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="29" ht="15" spans="1:2">
+      <c r="A29" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="30" ht="15" spans="1:2">
+      <c r="A30" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="31" ht="15" spans="1:2">
+      <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="32" ht="15" spans="1:2">
+      <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B32" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="33" ht="15" spans="1:2">
+      <c r="A33" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="B33" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:2">
+      <c r="A34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" ht="15" spans="1:2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" ht="15" spans="1:2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" ht="15" spans="1:2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" ht="15" spans="1:2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" ht="15" spans="1:2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" ht="15" spans="1:2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" ht="15" spans="1:2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" ht="15" spans="1:2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" ht="15" spans="1:2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" ht="15" spans="1:2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" ht="15" spans="1:2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" ht="15" spans="1:2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" ht="15" spans="1:2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" ht="15" spans="1:2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/25网络工程学生考勤.xlsx
+++ b/25网络工程学生考勤.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="75">
   <si>
     <t>学号</t>
   </si>
@@ -71,6 +71,31 @@
   </si>
   <si>
     <t>10.17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.20</t>
+    </r>
+  </si>
+  <si>
+    <t>10.24</t>
   </si>
   <si>
     <t>25080903001</t>
@@ -300,13 +325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -328,13 +346,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1008,15 +1033,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1024,21 +1052,19 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1361,10 +1387,10 @@
   <sheetPr/>
   <dimension ref="A1:GW52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+      <selection pane="topRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1384,7 +1410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="15" spans="1:11">
+    <row r="2" s="10" customFormat="1" ht="15" spans="1:13">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="11"/>
@@ -1412,1157 +1438,1355 @@
       <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="L2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="M2" s="10" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
         <f>100-COUNTIF(D3:Z3,"×")*3</f>
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:11">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C34" si="0">100-COUNTIF(D4:Z4,"×")*3</f>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>110-COUNTIF(D14:Z14,"×")*3</f>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:11">
-      <c r="A15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:11">
-      <c r="A16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:11">
-      <c r="A17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="L21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="L25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>57</v>
+        <v>10</v>
+      </c>
+      <c r="L26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:13">
+      <c r="A29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="L29" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:13">
+      <c r="A30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="L30" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:13">
+      <c r="A31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="L31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:13">
+      <c r="A32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="L32" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:13">
+      <c r="A33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>71</v>
+        <v>10</v>
+      </c>
+      <c r="L33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:13">
+      <c r="A34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="L34" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" ht="66" customHeight="1" spans="1:205">
@@ -2602,11 +2826,11 @@
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N35">
         <f t="shared" si="1"/>
@@ -3389,15 +3613,15 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="H38" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
     </row>
     <row r="39" ht="15" spans="1:2">
       <c r="A39" s="8"/>
@@ -3478,11 +3702,11 @@
       </c>
       <c r="L50">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M50">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N50">
         <f t="shared" si="5"/>
@@ -3495,15 +3719,15 @@
     </row>
     <row r="52" ht="30" spans="8:15">
       <c r="H52" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3535,7 +3759,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -3557,258 +3781,258 @@
     </row>
     <row r="3" ht="15.75" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="15" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="15" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="15" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:2">
-      <c r="A22" s="7" t="s">
-        <v>46</v>
+      <c r="A22" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:2">
-      <c r="A23" s="7" t="s">
-        <v>48</v>
+      <c r="A23" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:2">
-      <c r="A24" s="7" t="s">
-        <v>50</v>
+      <c r="A24" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:2">
-      <c r="A25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>53</v>
+      <c r="A25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:2">
-      <c r="A26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>55</v>
+      <c r="A26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:2">
-      <c r="A27" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>57</v>
+      <c r="A27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:2">
-      <c r="A28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>59</v>
+      <c r="A28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:2">
-      <c r="A29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>61</v>
+      <c r="A29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:2">
-      <c r="A30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>63</v>
+      <c r="A30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:2">
-      <c r="A31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>65</v>
+      <c r="A31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:2">
-      <c r="A32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>67</v>
+      <c r="A32" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:2">
-      <c r="A33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>69</v>
+      <c r="A33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:2">
-      <c r="A34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>71</v>
+      <c r="A34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:2">

--- a/25网络工程学生考勤.xlsx
+++ b/25网络工程学生考勤.xlsx
@@ -1,21 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2025\教学\C语言\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="考勤" sheetId="3" r:id="rId1"/>
+    <sheet name="值日" sheetId="4" r:id="rId2"/>
+    <sheet name="实验报告" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="76">
   <si>
     <t>学号</t>
   </si>
@@ -98,6 +117,9 @@
     <t>10.24</t>
   </si>
   <si>
+    <t>10.27</t>
+  </si>
+  <si>
     <t>25080903001</t>
   </si>
   <si>
@@ -302,14 +324,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,7 +344,7 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -359,158 +375,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,194 +429,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -787,262 +501,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1059,72 +525,53 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1379,1419 +826,1517 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GW52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="M34" sqref="M34"/>
+      <selection pane="topRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="15" spans="1:13">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10">
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="8">
         <v>9.15</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>9.19</v>
       </c>
-      <c r="F2" s="10">
-        <v>9.22</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="F2" s="8">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="G2" s="8">
         <v>9.26</v>
       </c>
-      <c r="H2" s="10">
-        <v>9.29</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="8">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C3">
         <f>100-COUNTIF(D3:Z3,"×")*3</f>
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:13">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C34" si="0">100-COUNTIF(D4:Z4,"×")*3</f>
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:13">
-      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:13">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:13">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:13">
-      <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:13">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>29</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <f>110-COUNTIF(D14:Z14,"×")*3</f>
         <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>43</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>51</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>53</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>59</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>61</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:13">
-      <c r="A29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>63</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:13">
-      <c r="A30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>65</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="1:13">
-      <c r="A31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>67</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:13">
-      <c r="A32" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>69</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="1:13">
-      <c r="A33" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>71</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="1:13">
-      <c r="A34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>73</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" ht="66" customHeight="1" spans="1:205">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="N34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:205" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
       <c r="D35">
         <f>COUNTIF(D3:D34,"×")</f>
         <v>1</v>
@@ -2834,7 +2379,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
@@ -3601,73 +3146,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-    </row>
-    <row r="37" ht="15" spans="1:2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" ht="30.75" spans="1:15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="H38" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-    </row>
-    <row r="39" ht="15" spans="1:2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" ht="15" spans="1:2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" ht="15" spans="1:2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" ht="15" spans="1:2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" ht="15" spans="1:2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-    </row>
-    <row r="44" ht="15" spans="1:2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" ht="15" spans="1:2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" ht="15" spans="1:2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" ht="15" spans="1:2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" ht="15" spans="1:2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" ht="15" spans="1:2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-    </row>
-    <row r="50" ht="78" customHeight="1" spans="4:15">
+    <row r="36" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:205" ht="30" x14ac:dyDescent="0.4">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="H38" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+    </row>
+    <row r="39" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50">
         <f>COUNTIF(D3:D49,"×")</f>
         <v>1</v>
@@ -3710,24 +3255,24 @@
       </c>
       <c r="N50">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="30" spans="8:15">
-      <c r="H52" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="H52" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3737,7 +3282,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C$1:C$1048576">
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="20"/>
@@ -3749,358 +3295,755 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" ht="15" spans="1:2">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" ht="15" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" ht="15" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" ht="15" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" ht="15" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" ht="15" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" ht="15" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" ht="15" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" ht="15" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" ht="15" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" ht="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="5" t="s">
+    </row>
+    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="5" t="s">
+    </row>
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="15" spans="1:2">
-      <c r="A19" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="15" spans="1:2">
-      <c r="A20" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="15" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" ht="15" spans="1:2">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="7" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" ht="15" spans="1:2">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" ht="15" spans="1:2">
-      <c r="A24" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="7" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" ht="15" spans="1:2">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="6" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" ht="15" spans="1:2">
-      <c r="A26" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="6" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" ht="15" spans="1:2">
-      <c r="A27" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="6" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" ht="15" spans="1:2">
-      <c r="A28" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="6" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" ht="15" spans="1:2">
-      <c r="A29" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="6" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" ht="15" spans="1:2">
-      <c r="A30" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="6" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" ht="15" spans="1:2">
-      <c r="A31" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="6" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" ht="15" spans="1:2">
-      <c r="A32" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="6" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" ht="15" spans="1:2">
-      <c r="A33" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="6" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" ht="15" spans="1:2">
-      <c r="A34" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="6" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" ht="15" spans="1:2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" ht="15" spans="1:2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-    </row>
-    <row r="37" ht="15" spans="1:2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-    </row>
-    <row r="38" ht="15" spans="1:2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" ht="15" spans="1:2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" ht="15" spans="1:2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" ht="15" spans="1:2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-    </row>
-    <row r="42" ht="15" spans="1:2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" ht="15" spans="1:2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-    </row>
-    <row r="44" ht="15" spans="1:2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" ht="15" spans="1:2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" ht="15" spans="1:2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" ht="15" spans="1:2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-    </row>
-    <row r="48" ht="15" spans="1:2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" ht="15" spans="1:2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="11">
+        <v>45959</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/25网络工程学生考勤.xlsx
+++ b/25网络工程学生考勤.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2025\教学\C语言\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="3" r:id="rId1"/>
     <sheet name="值日" sheetId="4" r:id="rId2"/>
     <sheet name="实验报告" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="78">
   <si>
     <t>学号</t>
   </si>
@@ -120,6 +115,12 @@
     <t>10.27</t>
   </si>
   <si>
+    <t>10.31</t>
+  </si>
+  <si>
+    <t>11.03</t>
+  </si>
+  <si>
     <t>25080903001</t>
   </si>
   <si>
@@ -324,11 +325,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -344,7 +376,7 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -362,7 +394,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="9"/>
+      <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -375,42 +407,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +570,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -501,67 +828,353 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -826,1517 +1439,1716 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:GW52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="8">
+    <row r="2" s="17" customFormat="1" ht="15" spans="1:16">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="17">
         <v>9.15</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="17">
         <v>9.19</v>
       </c>
-      <c r="F2" s="8">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="F2" s="17">
+        <v>9.22</v>
+      </c>
+      <c r="G2" s="17">
         <v>9.26</v>
       </c>
-      <c r="H2" s="8">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="17">
+        <v>9.29</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="O2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="P2" s="17" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:16">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
         <f>100-COUNTIF(D3:Z3,"×")*3</f>
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:16">
+      <c r="A4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C34" si="0">100-COUNTIF(D4:Z4,"×")*3</f>
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="O9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="O13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="C14">
         <f>110-COUNTIF(D14:Z14,"×")*3</f>
         <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="O14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="O15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>44</v>
+        <v>13</v>
+      </c>
+      <c r="O18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="O19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:16">
+      <c r="A20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="O20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:16">
+      <c r="A21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="O21" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:16">
+      <c r="A22" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="O22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="O23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="O24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="O25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:16">
+      <c r="A26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:16">
+      <c r="A27" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:16">
+      <c r="A28" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M28" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="O28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:16">
+      <c r="A29" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="O29" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>13</v>
+      </c>
+      <c r="O30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="O31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:16">
+      <c r="A32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>72</v>
+        <v>13</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:16">
+      <c r="A33" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>74</v>
+        <v>13</v>
+      </c>
+      <c r="O33" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:16">
+      <c r="A34" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:205" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="O34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" ht="66" customHeight="1" spans="1:205">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="D35">
         <f>COUNTIF(D3:D34,"×")</f>
         <v>1</v>
@@ -2387,7 +3199,7 @@
       </c>
       <c r="P35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
         <f t="shared" si="1"/>
@@ -3146,73 +3958,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:205" ht="30" x14ac:dyDescent="0.4">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="H38" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-    </row>
-    <row r="39" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="15" spans="1:2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" ht="15" spans="1:2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" ht="30.75" spans="1:15">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="H38" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" ht="15" spans="1:2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" ht="15" spans="1:2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" ht="15" spans="1:2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" ht="15" spans="1:2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" ht="15" spans="1:2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" ht="15" spans="1:2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" ht="15" spans="1:2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" ht="15" spans="1:2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" ht="15" spans="1:2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" ht="15" spans="1:2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" ht="15" spans="1:2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" ht="78" customHeight="1" spans="4:15">
       <c r="D50">
         <f>COUNTIF(D3:D49,"×")</f>
         <v>1</v>
@@ -3262,17 +4074,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
+    <row r="52" ht="30" spans="8:15">
+      <c r="H52" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3282,8 +4094,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C$1:C$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="20"/>
@@ -3295,755 +4106,758 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="2" ht="15" spans="1:2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:2">
+      <c r="A3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="4" ht="15" spans="1:2">
+      <c r="A4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="6" ht="15" spans="1:2">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="7" ht="15" spans="1:2">
+      <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B7" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="8" ht="15" spans="1:2">
+      <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="9" ht="15" spans="1:2">
+      <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="10" ht="15" spans="1:2">
+      <c r="A10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="11" ht="15" spans="1:2">
+      <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B11" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="12" ht="15" spans="1:2">
+      <c r="A12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="13" ht="15" spans="1:2">
+      <c r="A13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="14" ht="15" spans="1:2">
+      <c r="A14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B14" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="15" ht="15" spans="1:2">
+      <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="16" s="8" customFormat="1" ht="15" spans="1:2">
+      <c r="A16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B16" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="17" s="8" customFormat="1" ht="15" spans="1:2">
+      <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B17" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="18" s="8" customFormat="1" ht="15" spans="1:2">
+      <c r="A18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B18" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="19" s="9" customFormat="1" ht="15" spans="1:2">
+      <c r="A19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B19" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="20" s="9" customFormat="1" ht="15" spans="1:2">
+      <c r="A20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B20" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="21" s="8" customFormat="1" ht="15" spans="1:2">
+      <c r="A21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B21" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="22" ht="15" spans="1:2">
+      <c r="A22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B22" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="23" ht="15" spans="1:2">
+      <c r="A23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B24" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B25" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B26" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B27" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B28" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B29" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B30" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B31" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B32" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="33" ht="15" spans="1:2">
+      <c r="A33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B33" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+    <row r="34" ht="15" spans="1:2">
+      <c r="A34" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" ht="15" spans="1:2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" ht="15" spans="1:2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" ht="15" spans="1:2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+    </row>
+    <row r="39" ht="15" spans="1:2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" ht="15" spans="1:2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" ht="15" spans="1:2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" ht="15" spans="1:2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" ht="15" spans="1:2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" ht="15" spans="1:2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" ht="15" spans="1:2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" ht="15" spans="1:2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" ht="15" spans="1:2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" ht="15" spans="1:2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" ht="15" spans="1:2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" ht="20.25" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="11">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="21" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
         <v>45959</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="13" t="s">
+    <row r="3" ht="24" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="23.25" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="23.25" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="23.25" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="23.25" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="23.25" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="23.25" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="23.25" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="33.75" spans="1:3">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="12" t="s">
+    </row>
+    <row r="12" ht="23.25" spans="1:3">
+      <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="33.75" spans="1:3">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="23.25" spans="1:3">
+      <c r="A14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="23.25" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="C15" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="23.25" spans="1:3">
+      <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="23.25" spans="1:3">
+      <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="23.25" spans="1:3">
+      <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="C18" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="23.25" spans="1:3">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="C19" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="23.25" spans="1:3">
+      <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="C20" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="23.25" spans="1:3">
+      <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="C21" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" ht="23.25" spans="1:3">
+      <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="23.25" spans="1:3">
+      <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="12" t="s">
+      <c r="C23" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" ht="23.25" spans="1:3">
+      <c r="A24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B24" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" ht="33.75" spans="1:3">
+      <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="C25" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="23.25" spans="1:3">
+      <c r="A26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="C26" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" ht="23.25" spans="1:3">
+      <c r="A27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="C27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" ht="23.25" spans="1:3">
+      <c r="A28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="23.25" spans="1:3">
+      <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="C29" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" ht="23.25" spans="1:3">
+      <c r="A30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="C30" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="23.25" spans="1:3">
+      <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="C31" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="23.25" spans="1:3">
+      <c r="A32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="C32" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" ht="23.25" spans="1:3">
+      <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="C33" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" ht="23.25" spans="1:3">
+      <c r="A34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" ht="20.25" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/25网络工程学生考勤.xlsx
+++ b/25网络工程学生考勤.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="80">
   <si>
     <t>学号</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>11.03</t>
+  </si>
+  <si>
+    <t>11.06</t>
+  </si>
+  <si>
+    <t>11.11</t>
   </si>
   <si>
     <t>25080903001</t>
@@ -387,14 +393,13 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF00B050"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1447,16 +1452,16 @@
   <sheetPr/>
   <dimension ref="A1:GW52"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H34" sqref="H34"/>
+      <selection pane="topRight" activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="10.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1470,7 +1475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="15" spans="1:16">
+    <row r="2" s="17" customFormat="1" ht="15" spans="1:18">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="18"/>
@@ -1513,1637 +1518,1835 @@
       <c r="P2" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:16">
-      <c r="A3" s="13" t="s">
+      <c r="Q2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="R2" s="17" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:18">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="C3">
         <f>100-COUNTIF(D3:Z3,"×")*3</f>
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:16">
-      <c r="A4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>15</v>
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:18">
+      <c r="A4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C34" si="0">100-COUNTIF(D4:Z4,"×")*3</f>
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:18">
+      <c r="A5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:18">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:18">
+      <c r="A7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>24</v>
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:18">
+      <c r="A8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:18">
+      <c r="A9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:18">
+      <c r="A10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:18">
+      <c r="A11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:18">
+      <c r="A12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>15</v>
+      </c>
+      <c r="R12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:18">
+      <c r="A13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:18">
+      <c r="A14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C14">
         <f>110-COUNTIF(D14:Z14,"×")*3</f>
         <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:18">
+      <c r="A15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:18">
+      <c r="A16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:18">
+      <c r="A17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:18">
+      <c r="A18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:18">
+      <c r="A19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="1:16">
-      <c r="A20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>48</v>
+        <v>15</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>15</v>
+      </c>
+      <c r="R19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:18">
+      <c r="A20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="1:16">
-      <c r="A21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:18">
+      <c r="A21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="1:16">
-      <c r="A22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>52</v>
+        <v>18</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>15</v>
+      </c>
+      <c r="R21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:18">
+      <c r="A22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>15</v>
+      </c>
+      <c r="R22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:18">
+      <c r="A23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:18">
+      <c r="A24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>15</v>
+      </c>
+      <c r="R24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:18">
+      <c r="A25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:16">
-      <c r="A26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>15</v>
+      </c>
+      <c r="R25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:18">
+      <c r="A26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:16">
-      <c r="A27" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>62</v>
+        <v>15</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>15</v>
+      </c>
+      <c r="R26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:18">
+      <c r="A27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:16">
-      <c r="A28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>64</v>
+        <v>15</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:18">
+      <c r="A28" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:16">
-      <c r="A29" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>15</v>
+      </c>
+      <c r="R28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:18">
+      <c r="A29" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>68</v>
+        <v>15</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:18">
+      <c r="A30" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>70</v>
+        <v>15</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:18">
+      <c r="A31" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:16">
-      <c r="A32" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>72</v>
+        <v>15</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>15</v>
+      </c>
+      <c r="R31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:18">
+      <c r="A32" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="1:16">
-      <c r="A33" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>15</v>
+      </c>
+      <c r="R32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:18">
+      <c r="A33" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="1:16">
-      <c r="A34" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>76</v>
+        <v>15</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>15</v>
+      </c>
+      <c r="R33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:18">
+      <c r="A34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P34" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="66" customHeight="1" spans="1:205">
@@ -3203,11 +3406,11 @@
       </c>
       <c r="Q35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S35">
         <f t="shared" si="1"/>
@@ -3970,7 +4173,7 @@
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="H38" s="19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -4076,7 +4279,7 @@
     </row>
     <row r="52" ht="30" spans="8:15">
       <c r="H52" s="19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
@@ -4113,13 +4316,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
@@ -4136,263 +4339,269 @@
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" ht="15.75" spans="1:2">
+    <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:2">
       <c r="A6" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:2">
       <c r="A7" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:2">
       <c r="A8" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:2">
       <c r="A9" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:2">
       <c r="A10" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:2">
       <c r="A11" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:2">
       <c r="A12" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:2">
       <c r="A13" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:2">
       <c r="A15" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" s="8" customFormat="1" ht="15" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" s="8" customFormat="1" ht="15" spans="1:2">
       <c r="A17" s="12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="1" ht="15" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" s="9" customFormat="1" ht="15" spans="1:2">
-      <c r="A19" s="13" t="s">
-        <v>45</v>
+      <c r="A19" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" s="9" customFormat="1" ht="15" spans="1:2">
-      <c r="A20" s="13" t="s">
-        <v>47</v>
+      <c r="A20" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" s="8" customFormat="1" ht="15" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:2">
-      <c r="A22" s="13" t="s">
-        <v>51</v>
+      <c r="A22" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:2">
-      <c r="A23" s="13" t="s">
-        <v>53</v>
+      <c r="A23" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:2">
+      <c r="A24" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:2">
+      <c r="A25" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:2">
+      <c r="A26" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:2">
+      <c r="A27" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="13" t="s">
+    <row r="28" ht="15" spans="1:2">
+      <c r="A28" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="13" t="s">
+    <row r="29" ht="15" spans="1:2">
+      <c r="A29" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="13" t="s">
+    <row r="30" ht="15" spans="1:2">
+      <c r="A30" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="13" t="s">
+    <row r="31" ht="15" spans="1:2">
+      <c r="A31" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:2">
-      <c r="A33" s="13" t="s">
+    <row r="32" ht="15" spans="1:2">
+      <c r="A32" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B32" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:2">
-      <c r="A34" s="13" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:2">
+    <row r="34" spans="1:2">
+      <c r="A34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
     </row>
@@ -4475,7 +4684,7 @@
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="3" max="3" width="27.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:3">
@@ -4496,354 +4705,354 @@
     </row>
     <row r="3" ht="24" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="23.25" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="23.25" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" ht="23.25" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="23.25" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="23.25" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="23.25" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="23.25" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="33.75" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="23.25" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="33.75" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="23.25" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" ht="23.25" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="23.25" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" ht="23.25" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="23.25" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="23.25" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="23.25" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="23.25" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="23.25" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="23.25" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" ht="23.25" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="33.75" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="23.25" spans="1:3">
       <c r="A26" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" ht="23.25" spans="1:3">
       <c r="A27" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" ht="23.25" spans="1:3">
       <c r="A28" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="23.25" spans="1:3">
       <c r="A29" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" ht="23.25" spans="1:3">
       <c r="A30" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" ht="23.25" spans="1:3">
       <c r="A31" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="23.25" spans="1:3">
       <c r="A32" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="23.25" spans="1:3">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="23.25" spans="1:3">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="20.25" spans="1:3">

--- a/25网络工程学生考勤.xlsx
+++ b/25网络工程学生考勤.xlsx
@@ -1,35 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2025\教学\C语言\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="3" r:id="rId1"/>
     <sheet name="值日" sheetId="4" r:id="rId2"/>
     <sheet name="实验报告" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="82">
   <si>
     <t>学号</t>
   </si>
@@ -127,6 +119,9 @@
     <t>11.11</t>
   </si>
   <si>
+    <t>11.14</t>
+  </si>
+  <si>
     <t>25080903001</t>
   </si>
   <si>
@@ -326,19 +321,30 @@
   </si>
   <si>
     <t>√、正常、△、迟到、○早退、×缺勤</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.17</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,7 +388,7 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -412,151 +418,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,194 +452,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -833,261 +524,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1096,12 +539,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1118,78 +555,40 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1444,1914 +843,2111 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GW52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="10.1333333333333" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="15" spans="1:18">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="17">
+    <row r="2" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="13">
         <v>9.15</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="13">
         <v>9.19</v>
       </c>
-      <c r="F2" s="17">
-        <v>9.22</v>
-      </c>
-      <c r="G2" s="17">
+      <c r="F2" s="13">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="G2" s="13">
         <v>9.26</v>
       </c>
-      <c r="H2" s="17">
-        <v>9.29</v>
-      </c>
-      <c r="I2" s="20" t="s">
+      <c r="H2" s="13">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:18">
-      <c r="A3" s="14" t="s">
+      <c r="S2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="T2" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
         <f>100-COUNTIF(D3:Z3,"×")*3</f>
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:18">
-      <c r="A4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C34" si="0">100-COUNTIF(D4:Z4,"×")*3</f>
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:18">
-      <c r="A5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>20</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:18">
-      <c r="A6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>22</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:18">
-      <c r="A7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>24</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:18">
-      <c r="A8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>26</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:18">
-      <c r="A9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>28</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:18">
-      <c r="A10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>30</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:18">
-      <c r="A11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S10" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>32</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:18">
-      <c r="A12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>34</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:18">
-      <c r="A13" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>36</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:18">
-      <c r="A14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>38</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C14">
         <f>110-COUNTIF(D14:Z14,"×")*3</f>
         <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:18">
-      <c r="A15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>40</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:18">
-      <c r="A16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>42</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:18">
-      <c r="A17" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S16" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>44</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:18">
-      <c r="A18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>46</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="1:18">
-      <c r="A19" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>48</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="1:18">
-      <c r="A20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" t="s">
+        <v>16</v>
+      </c>
+      <c r="T19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>50</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="1:18">
-      <c r="A21" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" t="s">
+        <v>16</v>
+      </c>
+      <c r="T20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>52</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="1:18">
-      <c r="A22" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>54</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:18">
-      <c r="A23" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" t="s">
+        <v>16</v>
+      </c>
+      <c r="T22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>56</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:18">
-      <c r="A24" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" t="s">
+        <v>16</v>
+      </c>
+      <c r="T23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>58</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:18">
-      <c r="A25" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" t="s">
+        <v>16</v>
+      </c>
+      <c r="T24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>60</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:18">
-      <c r="A26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25" t="s">
+        <v>16</v>
+      </c>
+      <c r="T25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>62</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:18">
-      <c r="A27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" t="s">
+        <v>16</v>
+      </c>
+      <c r="T26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>64</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:18">
-      <c r="A28" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>66</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:18">
-      <c r="A29" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>68</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:18">
-      <c r="A30" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>70</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="1:18">
-      <c r="A31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S30" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>72</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:18">
-      <c r="A32" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S31" t="s">
+        <v>16</v>
+      </c>
+      <c r="T31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>74</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="1:18">
-      <c r="A33" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S32" t="s">
+        <v>16</v>
+      </c>
+      <c r="T32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>76</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="1:18">
-      <c r="A34" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="S33" t="s">
+        <v>16</v>
+      </c>
+      <c r="T33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>78</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" ht="66" customHeight="1" spans="1:205">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="S34" t="s">
+        <v>16</v>
+      </c>
+      <c r="T34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:205" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
       <c r="D35">
         <f>COUNTIF(D3:D34,"×")</f>
         <v>1</v>
@@ -3418,7 +3014,7 @@
       </c>
       <c r="T35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
         <f t="shared" si="1"/>
@@ -4161,73 +3757,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-    </row>
-    <row r="37" ht="15" spans="1:2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" ht="30.75" spans="1:15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="H38" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-    </row>
-    <row r="39" ht="15" spans="1:2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-    </row>
-    <row r="40" ht="15" spans="1:2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-    </row>
-    <row r="41" ht="15" spans="1:2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-    </row>
-    <row r="42" ht="15" spans="1:2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-    </row>
-    <row r="43" ht="15" spans="1:2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-    </row>
-    <row r="44" ht="15" spans="1:2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-    </row>
-    <row r="45" ht="15" spans="1:2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-    </row>
-    <row r="46" ht="15" spans="1:2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-    </row>
-    <row r="47" ht="15" spans="1:2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" ht="15" spans="1:2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-    </row>
-    <row r="49" ht="15" spans="1:2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-    </row>
-    <row r="50" ht="78" customHeight="1" spans="4:15">
+    <row r="36" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:205" ht="30" x14ac:dyDescent="0.4">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="H38" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+    </row>
+    <row r="39" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:205" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+    </row>
+    <row r="50" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50">
         <f>COUNTIF(D3:D49,"×")</f>
         <v>1</v>
@@ -4277,17 +3873,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="30" spans="8:15">
-      <c r="H52" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
+    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.4">
+      <c r="H52" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4297,7 +3893,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C$1:C$1048576">
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="20"/>
@@ -4308,765 +3905,777 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-    </row>
-    <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="D2">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:3">
-      <c r="A4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:2">
-      <c r="A5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="B4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" ht="15" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" ht="15" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" ht="15" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="12" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" ht="15" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="12" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" ht="15" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="12" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" ht="15" spans="1:2">
-      <c r="A11" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="12" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" ht="15" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="12" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" ht="15" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" ht="15" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="12" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" ht="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="12" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" s="8" customFormat="1" ht="15" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="12" t="s">
+    </row>
+    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" s="8" customFormat="1" ht="15" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="12" t="s">
+    </row>
+    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" s="8" customFormat="1" ht="15" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="12" t="s">
+    </row>
+    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" s="9" customFormat="1" ht="15" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="B18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="12" t="s">
+    </row>
+    <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" s="9" customFormat="1" ht="15" spans="1:2">
-      <c r="A20" s="14" t="s">
+      <c r="B19" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="12" t="s">
+    </row>
+    <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" s="8" customFormat="1" ht="15" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="B20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="12" t="s">
+    </row>
+    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" ht="15" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="B21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="12" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" ht="15" spans="1:2">
-      <c r="A23" s="14" t="s">
+      <c r="B22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="12" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" ht="15" spans="1:2">
-      <c r="A24" s="14" t="s">
+      <c r="B23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="12" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" ht="15" spans="1:2">
-      <c r="A25" s="14" t="s">
+      <c r="B24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="12" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" ht="15" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="B25" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="12" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" ht="15" spans="1:2">
-      <c r="A27" s="14" t="s">
+      <c r="B26" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="12" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" ht="15" spans="1:2">
-      <c r="A28" s="14" t="s">
+      <c r="B27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="12" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" ht="15" spans="1:2">
-      <c r="A29" s="14" t="s">
+      <c r="B28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="12" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" ht="15" spans="1:2">
-      <c r="A30" s="14" t="s">
+      <c r="B29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="12" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" ht="15" spans="1:2">
-      <c r="A31" s="14" t="s">
+      <c r="B30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="12" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" ht="15" spans="1:2">
-      <c r="A32" s="14" t="s">
+      <c r="B31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="14" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="14" t="s">
+      <c r="B32" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="14" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
+      <c r="B33" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="12" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-    </row>
-    <row r="36" ht="15" spans="1:2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-    </row>
-    <row r="37" ht="15" spans="1:2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-    </row>
-    <row r="38" ht="15" spans="1:2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-    </row>
-    <row r="39" ht="15" spans="1:2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-    </row>
-    <row r="40" ht="15" spans="1:2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-    </row>
-    <row r="41" ht="15" spans="1:2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-    </row>
-    <row r="42" ht="15" spans="1:2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-    </row>
-    <row r="43" ht="15" spans="1:2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-    </row>
-    <row r="44" ht="15" spans="1:2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-    </row>
-    <row r="45" ht="15" spans="1:2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-    </row>
-    <row r="46" ht="15" spans="1:2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-    </row>
-    <row r="47" ht="15" spans="1:2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" ht="15" spans="1:2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-    </row>
-    <row r="49" ht="15" spans="1:2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
+      <c r="B34" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="27.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" ht="21" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="2">
         <v>45959</v>
       </c>
     </row>
-    <row r="3" ht="24" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" ht="23.25" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="23.25" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="23.25" spans="1:3">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="23.25" spans="1:3">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="23.25" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="23.25" spans="1:3">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="23.25" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="33.75" spans="1:3">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="23.25" spans="1:3">
-      <c r="A12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" ht="33.75" spans="1:3">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" ht="23.25" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" ht="23.25" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" ht="23.25" spans="1:3">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="23.25" spans="1:3">
-      <c r="A17" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" ht="23.25" spans="1:3">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" ht="23.25" spans="1:3">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" ht="23.25" spans="1:3">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" ht="23.25" spans="1:3">
-      <c r="A21" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="23.25" spans="1:3">
-      <c r="A22" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" ht="23.25" spans="1:3">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" ht="23.25" spans="1:3">
-      <c r="A24" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" ht="33.75" spans="1:3">
-      <c r="A25" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" ht="23.25" spans="1:3">
-      <c r="A26" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" ht="23.25" spans="1:3">
-      <c r="A27" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" ht="23.25" spans="1:3">
-      <c r="A28" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C27" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" ht="23.25" spans="1:3">
-      <c r="A29" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C28" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" ht="23.25" spans="1:3">
-      <c r="A30" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C29" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" ht="23.25" spans="1:3">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C30" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" ht="23.25" spans="1:3">
-      <c r="A32" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" ht="23.25" spans="1:3">
-      <c r="A33" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C32" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" ht="23.25" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C33" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" ht="20.25" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/25网络工程学生考勤.xlsx
+++ b/25网络工程学生考勤.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2025\教学\C语言\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2025\教学\C语言\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="3" r:id="rId1"/>
@@ -17,11 +17,24 @@
     <sheet name="实验报告" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="85">
   <si>
     <t>学号</t>
   </si>
@@ -122,208 +135,14 @@
     <t>11.14</t>
   </si>
   <si>
-    <t>25080903001</t>
-  </si>
-  <si>
-    <t>郝子鹏</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>25080903002</t>
-  </si>
-  <si>
-    <t>孔佑姿</t>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>25080903003</t>
-  </si>
-  <si>
-    <t>任莹</t>
-  </si>
-  <si>
-    <t>25080903004</t>
-  </si>
-  <si>
-    <t>王洪超</t>
-  </si>
-  <si>
-    <t>25080903005</t>
-  </si>
-  <si>
-    <t>于典</t>
-  </si>
-  <si>
-    <t>25080903006</t>
-  </si>
-  <si>
-    <t>毛甜甜</t>
-  </si>
-  <si>
-    <t>25080903007</t>
-  </si>
-  <si>
-    <t>唐雪峰</t>
-  </si>
-  <si>
-    <t>25080903008</t>
-  </si>
-  <si>
-    <t>高明蕊</t>
-  </si>
-  <si>
-    <t>25080903009</t>
-  </si>
-  <si>
-    <t>姜玉航</t>
-  </si>
-  <si>
-    <t>25080903010</t>
-  </si>
-  <si>
-    <t>张子函</t>
-  </si>
-  <si>
-    <t>25080903011</t>
-  </si>
-  <si>
-    <t>张泽昌</t>
-  </si>
-  <si>
-    <t>25080903012</t>
-  </si>
-  <si>
-    <t>姜若含</t>
-  </si>
-  <si>
-    <t>25080903013</t>
-  </si>
-  <si>
-    <t>王铮</t>
-  </si>
-  <si>
-    <t>25080903014</t>
-  </si>
-  <si>
-    <t>张耀誉</t>
-  </si>
-  <si>
-    <t>25080903016</t>
-  </si>
-  <si>
-    <t>付俊博</t>
-  </si>
-  <si>
-    <t>25080903017</t>
-  </si>
-  <si>
-    <t>李淑雅</t>
-  </si>
-  <si>
-    <t>25080903018</t>
-  </si>
-  <si>
-    <t>段明涵</t>
-  </si>
-  <si>
-    <t>25080903019</t>
-  </si>
-  <si>
-    <t>黄晟轩</t>
-  </si>
-  <si>
-    <t>25080903021</t>
-  </si>
-  <si>
-    <t>马云晓</t>
-  </si>
-  <si>
-    <t>25080903022</t>
-  </si>
-  <si>
-    <t>王开宇</t>
-  </si>
-  <si>
-    <t>25080903023</t>
-  </si>
-  <si>
-    <t>周亮</t>
-  </si>
-  <si>
-    <t>25080903024</t>
-  </si>
-  <si>
-    <t>刘文硕</t>
-  </si>
-  <si>
-    <t>25080903025</t>
-  </si>
-  <si>
-    <t>薛嘉乐</t>
-  </si>
-  <si>
-    <t>25080903026</t>
-  </si>
-  <si>
-    <t>商久胜</t>
-  </si>
-  <si>
-    <t>25080903027</t>
-  </si>
-  <si>
-    <t>张旖芮</t>
-  </si>
-  <si>
-    <t>25080903028</t>
-  </si>
-  <si>
-    <t>王浩瑞</t>
-  </si>
-  <si>
-    <t>25080903030</t>
-  </si>
-  <si>
-    <t>焦吉硕</t>
-  </si>
-  <si>
-    <t>25080903032</t>
-  </si>
-  <si>
-    <t>贺贞贤</t>
-  </si>
-  <si>
-    <t>25080903033</t>
-  </si>
-  <si>
-    <t>毕家乐</t>
-  </si>
-  <si>
-    <t>25080903034</t>
-  </si>
-  <si>
-    <t>马文佑</t>
-  </si>
-  <si>
-    <t>25080903035</t>
-  </si>
-  <si>
-    <t>朱莉莉</t>
-  </si>
-  <si>
-    <t>25080903036</t>
-  </si>
-  <si>
-    <t>周锦源</t>
-  </si>
-  <si>
-    <t>√、正常、△、迟到、○早退、×缺勤</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -331,20 +150,229 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>1.17</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.21</t>
+  </si>
+  <si>
+    <t>11.24</t>
+  </si>
+  <si>
+    <t>25080903001</t>
+  </si>
+  <si>
+    <t>郝子鹏</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>25080903002</t>
+  </si>
+  <si>
+    <t>孔佑姿</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>25080903003</t>
+  </si>
+  <si>
+    <t>任莹</t>
+  </si>
+  <si>
+    <t>25080903004</t>
+  </si>
+  <si>
+    <t>王洪超</t>
+  </si>
+  <si>
+    <t>25080903005</t>
+  </si>
+  <si>
+    <t>于典</t>
+  </si>
+  <si>
+    <t>25080903006</t>
+  </si>
+  <si>
+    <t>毛甜甜</t>
+  </si>
+  <si>
+    <t>25080903007</t>
+  </si>
+  <si>
+    <t>唐雪峰</t>
+  </si>
+  <si>
+    <t>25080903008</t>
+  </si>
+  <si>
+    <t>高明蕊</t>
+  </si>
+  <si>
+    <t>25080903009</t>
+  </si>
+  <si>
+    <t>姜玉航</t>
+  </si>
+  <si>
+    <t>25080903010</t>
+  </si>
+  <si>
+    <t>张子函</t>
+  </si>
+  <si>
+    <t>25080903011</t>
+  </si>
+  <si>
+    <t>张泽昌</t>
+  </si>
+  <si>
+    <t>25080903012</t>
+  </si>
+  <si>
+    <t>姜若含</t>
+  </si>
+  <si>
+    <t>25080903013</t>
+  </si>
+  <si>
+    <t>王铮</t>
+  </si>
+  <si>
+    <t>25080903014</t>
+  </si>
+  <si>
+    <t>张耀誉</t>
+  </si>
+  <si>
+    <t>25080903016</t>
+  </si>
+  <si>
+    <t>付俊博</t>
+  </si>
+  <si>
+    <t>25080903017</t>
+  </si>
+  <si>
+    <t>李淑雅</t>
+  </si>
+  <si>
+    <t>25080903018</t>
+  </si>
+  <si>
+    <t>段明涵</t>
+  </si>
+  <si>
+    <t>25080903019</t>
+  </si>
+  <si>
+    <t>黄晟轩</t>
+  </si>
+  <si>
+    <t>25080903021</t>
+  </si>
+  <si>
+    <t>马云晓</t>
+  </si>
+  <si>
+    <t>25080903022</t>
+  </si>
+  <si>
+    <t>王开宇</t>
+  </si>
+  <si>
+    <t>25080903023</t>
+  </si>
+  <si>
+    <t>周亮</t>
+  </si>
+  <si>
+    <t>25080903024</t>
+  </si>
+  <si>
+    <t>刘文硕</t>
+  </si>
+  <si>
+    <t>25080903025</t>
+  </si>
+  <si>
+    <t>薛嘉乐</t>
+  </si>
+  <si>
+    <t>25080903026</t>
+  </si>
+  <si>
+    <t>商久胜</t>
+  </si>
+  <si>
+    <t>25080903027</t>
+  </si>
+  <si>
+    <t>张旖芮</t>
+  </si>
+  <si>
+    <t>25080903028</t>
+  </si>
+  <si>
+    <t>王浩瑞</t>
+  </si>
+  <si>
+    <t>25080903030</t>
+  </si>
+  <si>
+    <t>焦吉硕</t>
+  </si>
+  <si>
+    <t>25080903032</t>
+  </si>
+  <si>
+    <t>贺贞贤</t>
+  </si>
+  <si>
+    <t>25080903033</t>
+  </si>
+  <si>
+    <t>毕家乐</t>
+  </si>
+  <si>
+    <t>25080903034</t>
+  </si>
+  <si>
+    <t>马文佑</t>
+  </si>
+  <si>
+    <t>25080903035</t>
+  </si>
+  <si>
+    <t>朱莉莉</t>
+  </si>
+  <si>
+    <t>25080903036</t>
+  </si>
+  <si>
+    <t>周锦源</t>
+  </si>
+  <si>
+    <t>√、正常、△、迟到、○早退、×缺勤</t>
+  </si>
+  <si>
+    <t>2025.11.25</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,21 +442,6 @@
       <sz val="24"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -528,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -556,7 +569,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -851,9 +863,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GW52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N30" sqref="N30"/>
+      <selection pane="topRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -862,21 +874,21 @@
     <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
+    <row r="2" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="13">
         <v>9.15</v>
       </c>
@@ -925,2024 +937,2222 @@
       <c r="S2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <f>100-COUNTIF(D3:Z3,"×")*3</f>
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C34" si="0">100-COUNTIF(D4:Z4,"×")*3</f>
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U8" t="s">
+        <v>19</v>
+      </c>
+      <c r="V8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U9" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U11" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U12" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U13" t="s">
+        <v>19</v>
+      </c>
+      <c r="V13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14">
         <f>110-COUNTIF(D14:Z14,"×")*3</f>
         <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U14" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U15" t="s">
+        <v>19</v>
+      </c>
+      <c r="V15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U17" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U18" t="s">
+        <v>19</v>
+      </c>
+      <c r="V18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U19" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U20" t="s">
+        <v>19</v>
+      </c>
+      <c r="V20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U21" t="s">
+        <v>19</v>
+      </c>
+      <c r="V21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U22" t="s">
+        <v>19</v>
+      </c>
+      <c r="V22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U24" t="s">
+        <v>19</v>
+      </c>
+      <c r="V24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U25" t="s">
+        <v>19</v>
+      </c>
+      <c r="V25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="U26" t="s">
+        <v>19</v>
+      </c>
+      <c r="V26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L28" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U28" t="s">
+        <v>19</v>
+      </c>
+      <c r="V28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U30" t="s">
+        <v>19</v>
+      </c>
+      <c r="V30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="U31" t="s">
+        <v>19</v>
+      </c>
+      <c r="V31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T32" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="U32" t="s">
+        <v>19</v>
+      </c>
+      <c r="V32" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S33" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T33" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="U33" t="s">
+        <v>19</v>
+      </c>
+      <c r="V33" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S34" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="T34" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="U34" t="s">
+        <v>19</v>
+      </c>
+      <c r="V34" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:205" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -3022,7 +3232,7 @@
       </c>
       <c r="V35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W35">
         <f t="shared" si="1"/>
@@ -3768,16 +3978,16 @@
     <row r="38" spans="1:205" ht="30" x14ac:dyDescent="0.4">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
-      <c r="H38" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
+      <c r="H38" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
     </row>
     <row r="39" spans="1:205" x14ac:dyDescent="0.2">
       <c r="A39" s="11"/>
@@ -3874,16 +4084,16 @@
       </c>
     </row>
     <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
+      <c r="H52" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3893,7 +4103,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -3905,16 +4115,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3922,293 +4132,308 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
       <c r="D2">
         <v>11.17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="B5" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -4276,17 +4501,17 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4294,377 +4519,477 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="2">
         <v>45959</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="33" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4674,7 +4999,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/25网络工程学生考勤.xlsx
+++ b/25网络工程学生考勤.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2025\教学\C语言\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="考勤" sheetId="3" r:id="rId1"/>
     <sheet name="值日" sheetId="4" r:id="rId2"/>
     <sheet name="实验报告" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="89">
   <si>
     <t>学号</t>
   </si>
@@ -163,6 +158,18 @@
     <t>11.24</t>
   </si>
   <si>
+    <t>11.28</t>
+  </si>
+  <si>
+    <t>12.01</t>
+  </si>
+  <si>
+    <t>12.05</t>
+  </si>
+  <si>
+    <t>12.08</t>
+  </si>
+  <si>
     <t>25080903001</t>
   </si>
   <si>
@@ -365,14 +372,19 @@
   </si>
   <si>
     <t>2025.11.25</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,7 +428,7 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -445,8 +457,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,8 +621,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -537,13 +879,261 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -552,6 +1142,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -568,36 +1164,68 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -855,2309 +1483,2706 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:GW52"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T16" sqref="T16"/>
+      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="B17" sqref="B17:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="13">
+    <row r="2" s="17" customFormat="1" ht="15" spans="1:26">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="17">
         <v>9.15</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="17">
         <v>9.19</v>
       </c>
-      <c r="F2" s="13">
-        <v>9.2200000000000006</v>
-      </c>
-      <c r="G2" s="13">
+      <c r="F2" s="17">
+        <v>9.22</v>
+      </c>
+      <c r="G2" s="17">
         <v>9.26</v>
       </c>
-      <c r="H2" s="13">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="17">
+        <v>9.29</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="W2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="X2" s="17" t="s">
         <v>18</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:26">
+      <c r="A3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="C3">
         <f>100-COUNTIF(D3:Z3,"×")*3</f>
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="W3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:26">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C34" si="0">100-COUNTIF(D4:Z4,"×")*3</f>
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="W4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>28</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="W5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="W6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:26">
+      <c r="A7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="W7" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:26">
+      <c r="A8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="W8" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:26">
+      <c r="A9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="W9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:26">
+      <c r="A10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="W10" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>38</v>
+        <v>23</v>
+      </c>
+      <c r="W11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="W12" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="W13" t="s">
+        <v>23</v>
+      </c>
+      <c r="X13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C14">
         <f>110-COUNTIF(D14:Z14,"×")*3</f>
         <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="W14" t="s">
+        <v>23</v>
+      </c>
+      <c r="X14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="W15" t="s">
+        <v>23</v>
+      </c>
+      <c r="X15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="W16" t="s">
+        <v>23</v>
+      </c>
+      <c r="X16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="W17" t="s">
+        <v>23</v>
+      </c>
+      <c r="X17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="W18" t="s">
+        <v>23</v>
+      </c>
+      <c r="X18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="W19" t="s">
+        <v>23</v>
+      </c>
+      <c r="X19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>23</v>
+      </c>
+      <c r="W20" t="s">
+        <v>26</v>
+      </c>
+      <c r="X20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="W21" t="s">
+        <v>23</v>
+      </c>
+      <c r="X21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="W22" t="s">
+        <v>23</v>
+      </c>
+      <c r="X22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>62</v>
+        <v>23</v>
+      </c>
+      <c r="W23" t="s">
+        <v>23</v>
+      </c>
+      <c r="X23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="W24" t="s">
+        <v>23</v>
+      </c>
+      <c r="X24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>66</v>
+        <v>23</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="W26" t="s">
+        <v>23</v>
+      </c>
+      <c r="X26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U27" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>70</v>
+        <v>23</v>
+      </c>
+      <c r="W27" t="s">
+        <v>23</v>
+      </c>
+      <c r="X27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>72</v>
+        <v>23</v>
+      </c>
+      <c r="W28" t="s">
+        <v>23</v>
+      </c>
+      <c r="X28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>74</v>
+        <v>23</v>
+      </c>
+      <c r="W29" t="s">
+        <v>23</v>
+      </c>
+      <c r="X29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U30" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>76</v>
+        <v>23</v>
+      </c>
+      <c r="W30" t="s">
+        <v>23</v>
+      </c>
+      <c r="X30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U31" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>78</v>
+        <v>26</v>
+      </c>
+      <c r="W31" t="s">
+        <v>23</v>
+      </c>
+      <c r="X31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>80</v>
+        <v>23</v>
+      </c>
+      <c r="W32" t="s">
+        <v>23</v>
+      </c>
+      <c r="X32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:205">
+      <c r="A33" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>82</v>
+        <v>23</v>
+      </c>
+      <c r="W33" t="s">
+        <v>23</v>
+      </c>
+      <c r="X33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:205">
+      <c r="A34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Q34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="V34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:205" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="W34" t="s">
+        <v>23</v>
+      </c>
+      <c r="X34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" ht="66" customHeight="1" spans="1:205">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
       <c r="D35">
         <f>COUNTIF(D3:D34,"×")</f>
         <v>1</v>
@@ -3236,15 +4261,15 @@
       </c>
       <c r="W35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35">
         <f t="shared" si="1"/>
@@ -3967,73 +4992,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-    </row>
-    <row r="37" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:205" ht="30" x14ac:dyDescent="0.4">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="H38" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-    </row>
-    <row r="39" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-    </row>
-    <row r="41" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-    </row>
-    <row r="43" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-    </row>
-    <row r="45" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-    </row>
-    <row r="46" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-    </row>
-    <row r="47" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-    </row>
-    <row r="48" spans="1:205" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-    </row>
-    <row r="50" spans="1:15" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="15" spans="1:205">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" ht="15" spans="1:205">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" ht="30.75" spans="1:205">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="H38" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" ht="15" spans="1:205">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" ht="15" spans="1:205">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" ht="15" spans="1:205">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" ht="15" spans="1:205">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" ht="15" spans="1:205">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" ht="15" spans="1:205">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" ht="15" spans="1:205">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" ht="15" spans="1:205">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" ht="15" spans="1:205">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" ht="15" spans="1:205">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" ht="15" spans="1:15">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" ht="78" customHeight="1" spans="1:15">
       <c r="D50">
         <f>COUNTIF(D3:D49,"×")</f>
         <v>1</v>
@@ -4083,17 +5108,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="30" x14ac:dyDescent="0.4">
-      <c r="H52" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
+    <row r="52" ht="30" spans="1:15">
+      <c r="H52" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4103,8 +5128,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C$1:C$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="percentile" val="20"/>
@@ -4116,891 +5140,924 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
+    <row r="2" ht="15" spans="1:7">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="D2">
         <v>11.17</v>
       </c>
       <c r="E2">
         <v>11.24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="F2">
+        <v>12.1</v>
+      </c>
+      <c r="G2">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:7">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:7">
+      <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:7">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="E5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:7">
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="E6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:7">
+      <c r="A7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:7">
+      <c r="A9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10" t="s">
+    <row r="10" ht="15" spans="1:7">
+      <c r="A10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="11" ht="15" spans="1:7">
+      <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="12" ht="15" spans="1:7">
+      <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="13" ht="15" spans="1:7">
+      <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+    <row r="14" ht="15" spans="1:7">
+      <c r="A14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B14" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="15" ht="15" spans="1:7">
+      <c r="A15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B15" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="16" s="8" customFormat="1" ht="15" spans="1:7">
+      <c r="A16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+    <row r="17" s="8" customFormat="1" ht="15" spans="1:2">
+      <c r="A17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B17" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+    <row r="18" s="8" customFormat="1" ht="15" spans="1:2">
+      <c r="A18" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B18" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="19" s="9" customFormat="1" ht="15" spans="1:2">
+      <c r="A19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B19" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+    <row r="20" s="9" customFormat="1" ht="15" spans="1:2">
+      <c r="A20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B20" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="21" s="8" customFormat="1" ht="15" spans="1:2">
+      <c r="A21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B21" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+    <row r="22" ht="15" spans="1:2">
+      <c r="A22" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B22" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+    <row r="23" ht="15" spans="1:2">
+      <c r="A23" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B23" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+    <row r="24" ht="15" spans="1:2">
+      <c r="A24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B24" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+    <row r="25" ht="15" spans="1:2">
+      <c r="A25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B25" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+    <row r="26" ht="15" spans="1:2">
+      <c r="A26" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B26" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+    <row r="27" ht="15" spans="1:2">
+      <c r="A27" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B27" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+    <row r="28" ht="15" spans="1:2">
+      <c r="A28" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+    <row r="29" ht="15" spans="1:2">
+      <c r="A29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B29" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+    <row r="30" ht="15" spans="1:2">
+      <c r="A30" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+    <row r="31" ht="15" spans="1:2">
+      <c r="A31" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B31" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+    <row r="32" ht="15" spans="1:2">
+      <c r="A32" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B32" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+    <row r="33" ht="15" spans="1:2">
+      <c r="A33" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:2">
+      <c r="A34" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" ht="15" spans="1:2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" ht="15" spans="1:2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" ht="15" spans="1:2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+    </row>
+    <row r="39" ht="15" spans="1:2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" ht="15" spans="1:2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" ht="15" spans="1:2">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" ht="15" spans="1:2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" ht="15" spans="1:2">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" ht="15" spans="1:2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" ht="15" spans="1:2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" ht="15" spans="1:2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" ht="15" spans="1:2">
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" ht="15" spans="1:2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" ht="15" spans="1:2">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" ht="20.25" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="2">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" ht="21" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
         <v>45959</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" ht="24" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="23.25" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="23.25" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="23.25" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="23.25" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="23.25" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="23.25" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="23.25" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="33.75" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="23.25" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="33.75" spans="1:4">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="23.25" spans="1:4">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="23.25" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="23.25" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="23.25" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" ht="23.25" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="23.25" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="23.25" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="23.25" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" ht="23.25" spans="1:4">
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="23.25" spans="1:4">
+      <c r="A23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="23.25" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" ht="33.75" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" ht="33.75" spans="1:4">
+      <c r="A26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" ht="23.25" spans="1:4">
+      <c r="A27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" ht="33.75" spans="1:4">
+      <c r="A28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" ht="23.25" spans="1:4">
+      <c r="A29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" ht="23.25" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" ht="23.25" spans="1:4">
+      <c r="A31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" ht="23.25" spans="1:4">
+      <c r="A32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" ht="23.25" spans="1:4">
+      <c r="A33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" ht="33.75" spans="1:4">
+      <c r="A34" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="33" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="33" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="33" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="33" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+    </row>
+    <row r="35" ht="20.25" spans="1:4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/25网络工程学生考勤.xlsx
+++ b/25网络工程学生考勤.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="98">
   <si>
     <t>学号</t>
   </si>
@@ -40,134 +40,85 @@
     <t>成绩</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10.1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.13</t>
-    </r>
-  </si>
-  <si>
-    <t>10.17</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.20</t>
-    </r>
-  </si>
-  <si>
-    <t>10.24</t>
-  </si>
-  <si>
-    <t>10.27</t>
-  </si>
-  <si>
-    <t>10.31</t>
-  </si>
-  <si>
-    <t>11.03</t>
-  </si>
-  <si>
-    <t>11.06</t>
-  </si>
-  <si>
-    <t>11.11</t>
-  </si>
-  <si>
-    <t>11.14</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1.17</t>
-    </r>
-  </si>
-  <si>
-    <t>11.21</t>
-  </si>
-  <si>
-    <t>11.24</t>
-  </si>
-  <si>
-    <t>11.28</t>
-  </si>
-  <si>
-    <t>12.01</t>
-  </si>
-  <si>
-    <t>12.05</t>
-  </si>
-  <si>
-    <t>12.08</t>
+    <t>9.15-理论</t>
+  </si>
+  <si>
+    <t>9.19-理论</t>
+  </si>
+  <si>
+    <t>9.22-实验</t>
+  </si>
+  <si>
+    <t>9.26-实验</t>
+  </si>
+  <si>
+    <t>9.29-实验</t>
+  </si>
+  <si>
+    <t>10.10-理论</t>
+  </si>
+  <si>
+    <t>10.13-实验</t>
+  </si>
+  <si>
+    <t>10.17-理论</t>
+  </si>
+  <si>
+    <t>10.20-实验</t>
+  </si>
+  <si>
+    <t>10.24-理论</t>
+  </si>
+  <si>
+    <t>10.27-实验</t>
+  </si>
+  <si>
+    <t>10.31-理论</t>
+  </si>
+  <si>
+    <t>11.03-实验</t>
+  </si>
+  <si>
+    <t>11.06-理论（调课）</t>
+  </si>
+  <si>
+    <t>11.11-实验</t>
+  </si>
+  <si>
+    <t>11.14-理论</t>
+  </si>
+  <si>
+    <t>11.17-实验</t>
+  </si>
+  <si>
+    <t>11.21-理论</t>
+  </si>
+  <si>
+    <t>11.24-实验</t>
+  </si>
+  <si>
+    <t>11.28-理论</t>
+  </si>
+  <si>
+    <t>12.01-实验</t>
+  </si>
+  <si>
+    <t>12.05-理论</t>
+  </si>
+  <si>
+    <t>12.08-实验</t>
+  </si>
+  <si>
+    <t>12.12-理论</t>
+  </si>
+  <si>
+    <t>12.15实验</t>
+  </si>
+  <si>
+    <t>12.17理论</t>
+  </si>
+  <si>
+    <t>12.23实验</t>
   </si>
   <si>
     <t>25080903001</t>
@@ -1491,10 +1442,10 @@
   <sheetPr/>
   <dimension ref="A1:GW52"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B17" sqref="B17:B20"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1503,7 +1454,7 @@
     <col min="9" max="9" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:30">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1514,2670 +1465,3066 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="15" spans="1:26">
+    <row r="2" s="17" customFormat="1" ht="15" spans="1:30">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="18"/>
-      <c r="D2" s="17">
-        <v>9.15</v>
-      </c>
-      <c r="E2" s="17">
-        <v>9.19</v>
-      </c>
-      <c r="F2" s="17">
-        <v>9.22</v>
-      </c>
-      <c r="G2" s="17">
-        <v>9.26</v>
-      </c>
-      <c r="H2" s="17">
-        <v>9.29</v>
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:26">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:30">
       <c r="A3" s="14" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <f>100-COUNTIF(D3:Z3,"×")*3</f>
+        <f>100-COUNTIF(D3:AZ3,"×")*3</f>
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:30">
       <c r="A4" s="14" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C34" si="0">100-COUNTIF(D4:Z4,"×")*3</f>
+        <f t="shared" ref="C4:C34" si="0">100-COUNTIF(D4:AZ4,"×")*3</f>
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:30">
       <c r="A5" s="14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:30">
       <c r="A6" s="14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:30">
       <c r="A7" s="14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:30">
       <c r="A8" s="14" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:30">
       <c r="A9" s="14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:30">
       <c r="A10" s="14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:30">
       <c r="A11" s="14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="S11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Y11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Z11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:30">
       <c r="A12" s="14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:30">
       <c r="A13" s="14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X13" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Y13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:30">
       <c r="A14" s="14" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C14">
-        <f>110-COUNTIF(D14:Z14,"×")*3</f>
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:30">
       <c r="A15" s="14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V15" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="W15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:30">
       <c r="A16" s="14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:30">
       <c r="A17" s="14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:30">
       <c r="A18" s="14" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:30">
       <c r="A19" s="14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:30">
       <c r="A20" s="14" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W20" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="X20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:30">
       <c r="A21" s="14" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P21" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y21" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:30">
       <c r="A22" s="14" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y22" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:30">
       <c r="A23" s="14" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H23" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y23" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:30">
       <c r="A24" s="14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y24" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:30">
       <c r="A25" s="14" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W25" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="X25" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Y25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:30">
       <c r="A26" s="14" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N26" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T26" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="U26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X26" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Y26" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:30">
       <c r="A27" s="14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R27" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="S27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y27" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:30">
       <c r="A28" s="14" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y28" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:30">
       <c r="A29" s="14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J29" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L29" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y29" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:30">
       <c r="A30" s="14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M30" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y30" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:30">
       <c r="A31" s="14" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V31" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="W31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y31" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+        <v>32</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:30">
       <c r="A32" s="14" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y32" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:205">
+        <v>32</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:205">
       <c r="A33" s="14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="R33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="W33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:205">
+        <v>32</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:205">
       <c r="A34" s="14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J34" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L34" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="P34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q34" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="S34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="T34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="V34" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="W34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Y34" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Z34" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="66" customHeight="1" spans="1:205">
@@ -4277,19 +4624,19 @@
       </c>
       <c r="AA35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35">
         <f t="shared" si="1"/>
@@ -5004,7 +5351,7 @@
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="H38" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
@@ -5110,7 +5457,7 @@
     </row>
     <row r="52" ht="30" spans="1:15">
       <c r="H52" s="20" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
@@ -5147,18 +5494,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5166,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:7">
+    <row r="2" ht="15" spans="1:9">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="D2">
@@ -5181,315 +5528,348 @@
       <c r="G2">
         <v>12.08</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:7">
+      <c r="H2">
+        <v>12.15</v>
+      </c>
+      <c r="I2">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:9">
       <c r="A3" s="12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:9">
+      <c r="A4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:9">
+      <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="B5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:9">
+      <c r="A6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:9">
+      <c r="A7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:9">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:9">
+      <c r="A9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="B9" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:9">
+      <c r="A10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:9">
+      <c r="A11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:9">
+      <c r="A12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:9">
+      <c r="A13" s="12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="B13" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:9">
+      <c r="A14" s="12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" ht="15" spans="1:7">
-      <c r="A5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="B14" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:9">
+      <c r="A15" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" ht="15" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="14" t="s">
+      <c r="B15" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="1" ht="15" spans="1:9">
+      <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" ht="15" spans="1:7">
-      <c r="A7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:7">
-      <c r="A10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:7">
-      <c r="A11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:7">
-      <c r="A12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:7">
-      <c r="A13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:7">
-      <c r="A14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" s="8" customFormat="1" ht="15" spans="1:7">
-      <c r="A16" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="B16" s="12" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" s="8" customFormat="1" ht="15" spans="1:2">
       <c r="A17" s="12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="1" ht="15" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" s="9" customFormat="1" ht="15" spans="1:2">
       <c r="A19" s="14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" s="9" customFormat="1" ht="15" spans="1:2">
       <c r="A20" s="14" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" s="8" customFormat="1" ht="15" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:2">
       <c r="A22" s="14" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:2">
       <c r="A23" s="14" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:2">
       <c r="A24" s="14" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:2">
       <c r="A25" s="14" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:2">
       <c r="A26" s="14" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:2">
       <c r="A27" s="14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:2">
       <c r="A28" s="14" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:2">
       <c r="A29" s="14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:2">
       <c r="A30" s="14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:2">
       <c r="A31" s="14" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:2">
       <c r="A32" s="14" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:2">
       <c r="A33" s="14" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:2">
       <c r="A34" s="14" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:2">
@@ -5568,7 +5948,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -5595,455 +5975,455 @@
         <v>45959</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="23.25" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="23.25" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="23.25" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="23.25" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="23.25" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="23.25" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="23.25" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" ht="33.75" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="23.25" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="33.75" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="23.25" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="23.25" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="23.25" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="23.25" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="23.25" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="23.25" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="23.25" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="23.25" spans="1:4">
       <c r="A21" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="23.25" spans="1:4">
       <c r="A22" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="23.25" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="23.25" spans="1:4">
       <c r="A24" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="33.75" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="33.75" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="23.25" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="33.75" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="23.25" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="23.25" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="23.25" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="23.25" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="23.25" spans="1:4">
       <c r="A33" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="33.75" spans="1:4">
       <c r="A34" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="20.25" spans="1:4">
